--- a/downloaded_files/EPES311_Lecture-35424.xlsx
+++ b/downloaded_files/EPES311_Lecture-35424.xlsx
@@ -1138,11 +1138,11 @@
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Microprocessors Applications (EPES311) Location : [18202]18202-60-الجيزة الرئيسي Time : Thursday(11:14)</x:oddHeader>
+    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Microprocessors Applications (EPES311) Location : [20503]20503-45-الجيزة الرئيسي Time : Thursday(11:14)</x:oddHeader>
     <x:oddFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:oddFooter>
-    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Microprocessors Applications (EPES311) Location : [18202]18202-60-الجيزة الرئيسي Time : Thursday(11:14)</x:evenHeader>
+    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Microprocessors Applications (EPES311) Location : [20503]20503-45-الجيزة الرئيسي Time : Thursday(11:14)</x:evenHeader>
     <x:evenFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:evenFooter>
-    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Microprocessors Applications (EPES311) Location : [18202]18202-60-الجيزة الرئيسي Time : Thursday(11:14)</x:firstHeader>
+    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Microprocessors Applications (EPES311) Location : [20503]20503-45-الجيزة الرئيسي Time : Thursday(11:14)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
   <x:tableParts count="1">

--- a/downloaded_files/EPES311_Lecture-35424.xlsx
+++ b/downloaded_files/EPES311_Lecture-35424.xlsx
@@ -588,7 +588,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="28.560625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="46.480625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -701,7 +701,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45907.4324542824</x:v>
+        <x:v>45929.6218128819</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
